--- a/LAB1/timing.xlsx
+++ b/LAB1/timing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>v1</t>
   </si>
@@ -28,6 +28,15 @@
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>1M lines</t>
   </si>
 </sst>
 </file>
@@ -376,15 +385,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -408,6 +418,9 @@
       <c r="C2">
         <v>5997414501</v>
       </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -520,6 +533,257 @@
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>99855021600</v>
+      </c>
+      <c r="B15">
+        <v>4999500</v>
+      </c>
+      <c r="C15">
+        <v>19608500</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>89521790900</v>
+      </c>
+      <c r="B16">
+        <v>1997200</v>
+      </c>
+      <c r="C16">
+        <v>7447300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>85489888400</v>
+      </c>
+      <c r="B17">
+        <v>2003300</v>
+      </c>
+      <c r="C17">
+        <v>25960900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>88253862700</v>
+      </c>
+      <c r="B18">
+        <v>2000100</v>
+      </c>
+      <c r="C18">
+        <v>3577700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>89043266800</v>
+      </c>
+      <c r="B19">
+        <v>2001300</v>
+      </c>
+      <c r="C19">
+        <v>1796300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>87275336100</v>
+      </c>
+      <c r="B20">
+        <v>1996700</v>
+      </c>
+      <c r="C20">
+        <v>6147700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>93325404200</v>
+      </c>
+      <c r="B21">
+        <v>2000900</v>
+      </c>
+      <c r="C21">
+        <v>1418000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>81020723100</v>
+      </c>
+      <c r="B22">
+        <v>1997000</v>
+      </c>
+      <c r="C22">
+        <v>1108100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>93639354100</v>
+      </c>
+      <c r="B23">
+        <v>2000200</v>
+      </c>
+      <c r="C23">
+        <v>1093400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>103850556200</v>
+      </c>
+      <c r="B24">
+        <v>1997500</v>
+      </c>
+      <c r="C24">
+        <v>1095100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>91127520410</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2299370</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6925300</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>95562797300</v>
+      </c>
+      <c r="B27">
+        <v>3004500</v>
+      </c>
+      <c r="C27">
+        <v>75802300</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>94014631100</v>
+      </c>
+      <c r="B28">
+        <v>3997800</v>
+      </c>
+      <c r="C28">
+        <v>13642200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>136171691700</v>
+      </c>
+      <c r="B29">
+        <v>1998700</v>
+      </c>
+      <c r="C29">
+        <v>61742000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>119665334700</v>
+      </c>
+      <c r="B30">
+        <v>2006800</v>
+      </c>
+      <c r="C30">
+        <v>13660200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>91450462400</v>
+      </c>
+      <c r="B31">
+        <v>1000300</v>
+      </c>
+      <c r="C31">
+        <v>10288000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>101984630000</v>
+      </c>
+      <c r="B32">
+        <v>2000300</v>
+      </c>
+      <c r="C32">
+        <v>82603100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>90193973500</v>
+      </c>
+      <c r="B33">
+        <v>2006300</v>
+      </c>
+      <c r="C33">
+        <v>34583100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>108163764500</v>
+      </c>
+      <c r="B34">
+        <v>1997800</v>
+      </c>
+      <c r="C34">
+        <v>10086100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>101338559500</v>
+      </c>
+      <c r="B35">
+        <v>1001800</v>
+      </c>
+      <c r="C35">
+        <v>8631700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>94338427200</v>
+      </c>
+      <c r="B36">
+        <v>2001600</v>
+      </c>
+      <c r="C36">
+        <v>9057700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>103288427190</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2101590</v>
+      </c>
+      <c r="C37" s="2">
+        <v>32009640</v>
       </c>
     </row>
   </sheetData>
